--- a/medicine/Hématologie/Hémoglobinose_H/Hémoglobinose_H.xlsx
+++ b/medicine/Hématologie/Hémoglobinose_H/Hémoglobinose_H.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobinose_H</t>
+          <t>Hémoglobinose_H</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémoglobinose H est une thalassémie alpha pour laquelle un seul allèle alpha est fonctionnel sur les quatre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobinose_H</t>
+          <t>Hémoglobinose_H</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Synthèse de chaînes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La synthèse de chaînes α est réduite de 40 à 80 %, celle de chaînes β est produite en excès, ce qui forme des complexes β4 appelés aussi HbH (quatre chaînes de β-globine) peu stables qui précipitent[1],[2].
-Chez le nouveau-né
-Le nouveau-né possède des chaînes γ (gamma) plutôt que β (beta) : celles-ci coagulent en Hémoglobine Barts[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La synthèse de chaînes α est réduite de 40 à 80 %, celle de chaînes β est produite en excès, ce qui forme des complexes β4 appelés aussi HbH (quatre chaînes de β-globine) peu stables qui précipitent,.
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobinose_H</t>
+          <t>Hémoglobinose_H</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Synthèse de chaînes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez 90 % des patients, l'hémoglobinose H se traduit par une anémie moyenne, chez 10 % des patients une anémie très sévère. Seulement quelques patients dépendent de transfusions, la plupart ont une croissance normale[1].
-L'anémie est hémolytique chronique, microcytaire, hypochrome et régénérative[2]. Elle est aggravée par les infections, la grossesse et l'exposition aux agents oxydants[3].
-Les individus porteurs présentent une splénomégalie[3]. Une lithiase biliaire est souvent observée[4].
+          <t>Chez le nouveau-né</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nouveau-né possède des chaînes γ (gamma) plutôt que β (beta) : celles-ci coagulent en Hémoglobine Barts.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobinose_H</t>
+          <t>Hémoglobinose_H</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez 90 % des patients, l'hémoglobinose H se traduit par une anémie moyenne, chez 10 % des patients une anémie très sévère. Seulement quelques patients dépendent de transfusions, la plupart ont une croissance normale.
+L'anémie est hémolytique chronique, microcytaire, hypochrome et régénérative. Elle est aggravée par les infections, la grossesse et l'exposition aux agents oxydants.
+Les individus porteurs présentent une splénomégalie. Une lithiase biliaire est souvent observée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hémoglobinose_H</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9moglobinose_H</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hémoglobinose H est fréquente en Asie du Sud-Est, modérément fréquente au Moyen-Orient et rare en Afrique[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hémoglobinose H est fréquente en Asie du Sud-Est, modérément fréquente au Moyen-Orient et rare en Afrique.
 </t>
         </is>
       </c>
